--- a/Assignment 1 Data value feasibility tables.xlsx
+++ b/Assignment 1 Data value feasibility tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaun\Documents\Data Analytics\3350\DATA3350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6EC260-8E9D-42D8-8B8F-290C8FECCAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360DD0DA-2E4E-43B0-B980-1B73B850EC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA5DD6A9-728D-4707-AF56-5E3AB2A9CAD6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">Airport surveillance </t>
   </si>
@@ -139,9 +139,6 @@
     <t>Maintenance reports</t>
   </si>
   <si>
-    <t>Departure city demographics</t>
-  </si>
-  <si>
     <t>departure city demographics</t>
   </si>
   <si>
@@ -155,6 +152,69 @@
   </si>
   <si>
     <t>total feasibility</t>
+  </si>
+  <si>
+    <t>Airport departure numbers (internal)</t>
+  </si>
+  <si>
+    <t>revenue production per kiosk (internal)</t>
+  </si>
+  <si>
+    <t>customers per hour for self-service (internal)</t>
+  </si>
+  <si>
+    <t>customers per hour for personal service (internal)</t>
+  </si>
+  <si>
+    <t>staff scheduling (internal)</t>
+  </si>
+  <si>
+    <t>What proportion of people use self-service vs personal service(internal)</t>
+  </si>
+  <si>
+    <t>Maintenance reports (internal)</t>
+  </si>
+  <si>
+    <t>Mobile app (internal)</t>
+  </si>
+  <si>
+    <t>delay frequency (internal)</t>
+  </si>
+  <si>
+    <t>cancellation frequency (internal)</t>
+  </si>
+  <si>
+    <t>Crm notes (internal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> customer satisfaction surveys (internal)</t>
+  </si>
+  <si>
+    <t>Application logs (internal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Development turn-around time (internal) </t>
+  </si>
+  <si>
+    <t>proportion of business/first class class passengers who use self-service (internal)</t>
+  </si>
+  <si>
+    <t>Departure city demographics (external)</t>
+  </si>
+  <si>
+    <t>layout of departure area (external)</t>
+  </si>
+  <si>
+    <t>TSA delays (external)</t>
+  </si>
+  <si>
+    <t>Competion kiosk usage (external)</t>
+  </si>
+  <si>
+    <t>Parking lot usage (external)</t>
+  </si>
+  <si>
+    <t>Airport surveillance (external)</t>
   </si>
 </sst>
 </file>
@@ -592,7 +652,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +684,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -638,7 +698,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -652,7 +712,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -666,7 +726,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -680,7 +740,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -694,7 +754,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -708,7 +768,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -722,7 +782,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -736,7 +796,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -750,7 +810,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -764,7 +824,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -778,7 +838,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -792,7 +852,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -806,7 +866,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -820,7 +880,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -834,7 +894,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -848,7 +908,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -862,7 +922,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -876,7 +936,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -890,7 +950,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -904,7 +964,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -988,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,7 +1245,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1257,7 +1317,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1329,7 +1389,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1473,7 +1533,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>1</v>
